--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL340_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL340_00002.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\# OOI_Asset_Management\CP_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3024" yWindow="2616" windowWidth="23244" windowHeight="9216" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="3030" yWindow="2610" windowWidth="23250" windowHeight="9210" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>Ref Des</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Sensor OOIBARCODE</t>
+  </si>
+  <si>
+    <t>CC_bsipar_par_scaling</t>
   </si>
 </sst>
 </file>
@@ -252,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,8 +274,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -321,6 +330,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -329,7 +353,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,6 +410,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -768,20 +795,20 @@
       <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="18.77734375" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
@@ -819,7 +846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -865,18 +892,18 @@
         <v>-70.708333333333329</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
     </row>
   </sheetData>
@@ -895,22 +922,22 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G20" sqref="G19:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="17" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -936,7 +963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -966,7 +993,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -996,7 +1023,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
@@ -1026,7 +1053,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
@@ -1056,7 +1083,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="20"/>
       <c r="C6" s="11"/>
@@ -1070,7 +1097,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
@@ -1096,7 +1123,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -1122,7 +1149,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -1148,7 +1175,7 @@
         <v>1.0760000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
@@ -1174,7 +1201,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="20"/>
       <c r="C11" s="12"/>
@@ -1183,7 +1210,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -1204,7 +1231,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="21"/>
       <c r="C13" s="12"/>
@@ -1213,7 +1240,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -1234,7 +1261,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="21"/>
       <c r="C15" s="12"/>
@@ -1243,7 +1270,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
@@ -1262,9 +1289,14 @@
       <c r="F16" s="12">
         <v>50154</v>
       </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="G16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="22">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="21"/>
       <c r="C17" s="12"/>
@@ -1273,7 +1305,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
@@ -1294,7 +1326,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1303,7 +1335,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL340_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL340_00002.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="2610" windowWidth="23250" windowHeight="9210" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="6900" yWindow="2640" windowWidth="28160" windowHeight="10300" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$98</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -545,7 +540,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -580,7 +575,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -791,24 +786,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.28515625" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
@@ -846,7 +841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -860,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="14">
-        <v>42133</v>
+        <v>42130</v>
       </c>
       <c r="F2" s="6">
         <v>4.1666666666666664E-2</v>
@@ -892,18 +887,18 @@
         <v>-70.708333333333329</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="B8" s="2"/>
     </row>
   </sheetData>
@@ -921,23 +916,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G19:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="17" customFormat="1" ht="28">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -963,7 +958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -993,7 +988,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -1023,7 +1018,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
@@ -1053,7 +1048,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
@@ -1083,7 +1078,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="8"/>
       <c r="B6" s="20"/>
       <c r="C6" s="11"/>
@@ -1097,7 +1092,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="3" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
@@ -1123,7 +1118,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -1149,7 +1144,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="3" customFormat="1">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -1175,7 +1170,7 @@
         <v>1.0760000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="3" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
@@ -1201,7 +1196,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="3" customFormat="1">
       <c r="A11" s="7"/>
       <c r="B11" s="20"/>
       <c r="C11" s="12"/>
@@ -1210,7 +1205,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="3" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -1231,7 +1226,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="3" customFormat="1">
       <c r="A13" s="7"/>
       <c r="B13" s="21"/>
       <c r="C13" s="12"/>
@@ -1240,7 +1235,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="3" customFormat="1">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -1261,7 +1256,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="3" customFormat="1">
       <c r="A15" s="7"/>
       <c r="B15" s="21"/>
       <c r="C15" s="12"/>
@@ -1270,7 +1265,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="3" customFormat="1">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
@@ -1296,7 +1291,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="7"/>
       <c r="B17" s="21"/>
       <c r="C17" s="12"/>
@@ -1305,7 +1300,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="3" customFormat="1">
       <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
@@ -1326,7 +1321,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="3" customFormat="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1335,7 +1330,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="3" customFormat="1">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1346,7 +1341,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
